--- a/TestData/TestInputData.xlsx
+++ b/TestData/TestInputData.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Robot_Framework\Salesforce_Automation-Demo\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8013C4C-68AD-4F02-ADBE-E86E9FB141A5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590A4218-6F79-4468-807F-CF44A5F4953E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9735" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contact" sheetId="2" r:id="rId1"/>
     <sheet name="Account" sheetId="3" r:id="rId2"/>
     <sheet name="Donation" sheetId="4" r:id="rId3"/>
+    <sheet name="Church_Alliance" sheetId="5" r:id="rId4"/>
+    <sheet name="Ministry_Alliance" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="201">
   <si>
     <t>FirstName</t>
   </si>
@@ -38,24 +40,9 @@
     <t>TCN</t>
   </si>
   <si>
-    <t>TC1</t>
-  </si>
-  <si>
-    <t>TC2</t>
-  </si>
-  <si>
-    <t>TC3</t>
-  </si>
-  <si>
     <t>SpouseName</t>
   </si>
   <si>
-    <t>Test1</t>
-  </si>
-  <si>
-    <t>Test3</t>
-  </si>
-  <si>
     <t>MailingStreet</t>
   </si>
   <si>
@@ -71,9 +58,6 @@
     <t>MailingCountry</t>
   </si>
   <si>
-    <t>Test Contact6</t>
-  </si>
-  <si>
     <t>QA6</t>
   </si>
   <si>
@@ -89,12 +73,6 @@
     <t>Test State 2</t>
   </si>
   <si>
-    <t>79234</t>
-  </si>
-  <si>
-    <t>77422</t>
-  </si>
-  <si>
     <t>Test Country</t>
   </si>
   <si>
@@ -194,52 +172,466 @@
     <t>Amount</t>
   </si>
   <si>
-    <t>Test Contact7</t>
-  </si>
-  <si>
-    <t>Test Mailing Street 11</t>
-  </si>
-  <si>
-    <t>Test Mailing Street 21</t>
-  </si>
-  <si>
-    <t>nallavan25@yopmail.com</t>
-  </si>
-  <si>
-    <t>nallavan24@yopmail.com</t>
-  </si>
-  <si>
-    <t>Test Mailing Street 22</t>
-  </si>
-  <si>
     <t>Test Mailing City3</t>
   </si>
   <si>
-    <t>QA8</t>
-  </si>
-  <si>
-    <t>Test Contact8</t>
-  </si>
-  <si>
     <t>Test State 3</t>
   </si>
   <si>
     <t>79235</t>
   </si>
   <si>
-    <t>nallavan26@yopmail.com</t>
-  </si>
-  <si>
     <t>BirthDate</t>
   </si>
   <si>
     <t>11/7/1992</t>
   </si>
   <si>
-    <t>Test23</t>
-  </si>
-  <si>
-    <t>QA78</t>
+    <t>Church Name</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Address 2</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Church Email</t>
+  </si>
+  <si>
+    <t>Church Phone</t>
+  </si>
+  <si>
+    <t>Zip code</t>
+  </si>
+  <si>
+    <t>How Did You Hear About US</t>
+  </si>
+  <si>
+    <t>Denominatoin</t>
+  </si>
+  <si>
+    <t>Lead Title</t>
+  </si>
+  <si>
+    <t>Lead First Name</t>
+  </si>
+  <si>
+    <t>Lead Last Name</t>
+  </si>
+  <si>
+    <t>Lead Email</t>
+  </si>
+  <si>
+    <t>Lead Phone</t>
+  </si>
+  <si>
+    <t>Primary Title</t>
+  </si>
+  <si>
+    <t>Primary First Name</t>
+  </si>
+  <si>
+    <t>Primary Last Name</t>
+  </si>
+  <si>
+    <t>Primary Email</t>
+  </si>
+  <si>
+    <t>Primary Phone</t>
+  </si>
+  <si>
+    <t>Attorney Last Name</t>
+  </si>
+  <si>
+    <t>Attorney First Name</t>
+  </si>
+  <si>
+    <t>Attorney Email</t>
+  </si>
+  <si>
+    <t>Attorney State</t>
+  </si>
+  <si>
+    <t>Church Promo Code</t>
+  </si>
+  <si>
+    <t>Payer First Name</t>
+  </si>
+  <si>
+    <t>Payer Last Name</t>
+  </si>
+  <si>
+    <t>Payer Address</t>
+  </si>
+  <si>
+    <t>Payer Address 2</t>
+  </si>
+  <si>
+    <t>Payer City</t>
+  </si>
+  <si>
+    <t>Payer State</t>
+  </si>
+  <si>
+    <t>Payer Zip Code</t>
+  </si>
+  <si>
+    <t>Card Year</t>
+  </si>
+  <si>
+    <t>Security Code</t>
+  </si>
+  <si>
+    <t>Card No</t>
+  </si>
+  <si>
+    <t>Card Name</t>
+  </si>
+  <si>
+    <t>Ministry Name</t>
+  </si>
+  <si>
+    <t>Ministry Email</t>
+  </si>
+  <si>
+    <t>Ministry Phone</t>
+  </si>
+  <si>
+    <t>Ministry Promo Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">437 NE. College Dr. </t>
+  </si>
+  <si>
+    <t>Chicago Heights</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>89833</t>
+  </si>
+  <si>
+    <t>Radio Advertisement</t>
+  </si>
+  <si>
+    <t>Eastern Orthodox</t>
+  </si>
+  <si>
+    <t>Senior_Pastor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ginger	</t>
+  </si>
+  <si>
+    <t>Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lawrence	</t>
+  </si>
+  <si>
+    <t>Rose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ellis	</t>
+  </si>
+  <si>
+    <t>Larson</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>TestMSTQA</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>Test address1</t>
+  </si>
+  <si>
+    <t>Test Address 2</t>
+  </si>
+  <si>
+    <t>Test City</t>
+  </si>
+  <si>
+    <t>VISA</t>
+  </si>
+  <si>
+    <t>4111111111111111</t>
+  </si>
+  <si>
+    <t>11/22</t>
+  </si>
+  <si>
+    <t>884</t>
+  </si>
+  <si>
+    <t>Church Size</t>
+  </si>
+  <si>
+    <t>501-1000</t>
+  </si>
+  <si>
+    <t>Attorney City</t>
+  </si>
+  <si>
+    <t>Illinois Test</t>
+  </si>
+  <si>
+    <t>PayerZip Code</t>
+  </si>
+  <si>
+    <t>bishop2@yopmail.com</t>
+  </si>
+  <si>
+    <t>8823938753</t>
+  </si>
+  <si>
+    <t>JeanMSTQA_Church</t>
+  </si>
+  <si>
+    <t>page2@yopmail.com</t>
+  </si>
+  <si>
+    <t>98894884767</t>
+  </si>
+  <si>
+    <t>rose2@yopmail.com</t>
+  </si>
+  <si>
+    <t>8823938767</t>
+  </si>
+  <si>
+    <t>QA1</t>
+  </si>
+  <si>
+    <t>Spouse1</t>
+  </si>
+  <si>
+    <t>Test Mailing Street 1</t>
+  </si>
+  <si>
+    <t>77426</t>
+  </si>
+  <si>
+    <t>testauto1@yopmail.com</t>
+  </si>
+  <si>
+    <t>TestCacse No</t>
+  </si>
+  <si>
+    <t>ADF_REL-01</t>
+  </si>
+  <si>
+    <t>ADF_REL-02</t>
+  </si>
+  <si>
+    <t>ADF_REL-03</t>
+  </si>
+  <si>
+    <t>Test Automation1</t>
+  </si>
+  <si>
+    <t>Spouse2</t>
+  </si>
+  <si>
+    <t>Test Mailing Street 2</t>
+  </si>
+  <si>
+    <t>77427</t>
+  </si>
+  <si>
+    <t>testauto2@yopmail.com</t>
+  </si>
+  <si>
+    <t>Salutation</t>
+  </si>
+  <si>
+    <t>Mr.</t>
+  </si>
+  <si>
+    <t>NickName</t>
+  </si>
+  <si>
+    <t>Test Automation4</t>
+  </si>
+  <si>
+    <t>Test Automation5</t>
+  </si>
+  <si>
+    <t>Test Automation6</t>
+  </si>
+  <si>
+    <t>QA4</t>
+  </si>
+  <si>
+    <t>QA5</t>
+  </si>
+  <si>
+    <t>QA3_Greeting</t>
+  </si>
+  <si>
+    <t>Spouse3</t>
+  </si>
+  <si>
+    <t>QA2-Salutation</t>
+  </si>
+  <si>
+    <t>Test Mailing Street 3</t>
+  </si>
+  <si>
+    <t>Test Mailing Street 4</t>
+  </si>
+  <si>
+    <t>Test Mailing Street 5</t>
+  </si>
+  <si>
+    <t>Test Mailing Street 6</t>
+  </si>
+  <si>
+    <t>Test Mailing Street 7</t>
+  </si>
+  <si>
+    <t>Test Mailing City4</t>
+  </si>
+  <si>
+    <t>Test Mailing City5</t>
+  </si>
+  <si>
+    <t>Test Mailing City6</t>
+  </si>
+  <si>
+    <t>Test Mailing City7</t>
+  </si>
+  <si>
+    <t>Test State 4</t>
+  </si>
+  <si>
+    <t>Test State 5</t>
+  </si>
+  <si>
+    <t>Test State 6</t>
+  </si>
+  <si>
+    <t>Test State 7</t>
+  </si>
+  <si>
+    <t>79236</t>
+  </si>
+  <si>
+    <t>79237</t>
+  </si>
+  <si>
+    <t>79238</t>
+  </si>
+  <si>
+    <t>79239</t>
+  </si>
+  <si>
+    <t>Test_QA</t>
+  </si>
+  <si>
+    <t>ADF_REL-04</t>
+  </si>
+  <si>
+    <t>ADF_REL-05</t>
+  </si>
+  <si>
+    <t>ADF_REL-06</t>
+  </si>
+  <si>
+    <t>Home Phone</t>
+  </si>
+  <si>
+    <t>9238848958</t>
+  </si>
+  <si>
+    <t>9238848959</t>
+  </si>
+  <si>
+    <t>9238848910</t>
+  </si>
+  <si>
+    <t>9238848911</t>
+  </si>
+  <si>
+    <t>9238848912</t>
+  </si>
+  <si>
+    <t>9238848913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mobile </t>
+  </si>
+  <si>
+    <t>7983885788</t>
+  </si>
+  <si>
+    <t>7983885787</t>
+  </si>
+  <si>
+    <t>7983885786</t>
+  </si>
+  <si>
+    <t>7983885785</t>
+  </si>
+  <si>
+    <t>7983885784</t>
+  </si>
+  <si>
+    <t>7983885783</t>
+  </si>
+  <si>
+    <t>Work Phone</t>
+  </si>
+  <si>
+    <t>8039848958</t>
+  </si>
+  <si>
+    <t>8039848957</t>
+  </si>
+  <si>
+    <t>8039848956</t>
+  </si>
+  <si>
+    <t>8039848955</t>
+  </si>
+  <si>
+    <t>8039848954</t>
+  </si>
+  <si>
+    <t>8039848953</t>
+  </si>
+  <si>
+    <t>Work Phone Extension</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>Preffered Phone</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Work</t>
   </si>
 </sst>
 </file>
@@ -294,12 +686,14 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -581,30 +975,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
     <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" customWidth="1"/>
-    <col min="7" max="7" width="19" customWidth="1"/>
+    <col min="4" max="5" width="17.85546875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" customWidth="1"/>
+    <col min="7" max="7" width="22" customWidth="1"/>
     <col min="8" max="8" width="19.42578125" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" customWidth="1"/>
-    <col min="10" max="10" width="24.7109375" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" customWidth="1"/>
+    <col min="11" max="11" width="20.28515625" customWidth="1"/>
+    <col min="12" max="12" width="24.7109375" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" customWidth="1"/>
+    <col min="15" max="15" width="17.85546875" customWidth="1"/>
+    <col min="16" max="16" width="15.5703125" customWidth="1"/>
+    <col min="17" max="17" width="25.42578125" customWidth="1"/>
+    <col min="18" max="18" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>133</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -612,138 +1012,348 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N1" t="s">
+        <v>174</v>
+      </c>
+      <c r="O1" t="s">
+        <v>181</v>
+      </c>
+      <c r="P1" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>195</v>
+      </c>
+      <c r="R1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="F2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="K2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="K3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="R5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="R6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" t="s">
-        <v>67</v>
+      <c r="G7" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G4" t="s">
-        <v>64</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>68</v>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G8" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" xr:uid="{3A54CB49-4D81-4A1C-B61C-5E4DE21185F5}"/>
-    <hyperlink ref="J3" r:id="rId2" xr:uid="{BF74F309-8126-49F4-AFB3-A3619E30E095}"/>
-    <hyperlink ref="J4" r:id="rId3" xr:uid="{B249AE59-C7ED-4189-9869-73C7A576250A}"/>
+    <hyperlink ref="L2" r:id="rId1" xr:uid="{3A54CB49-4D81-4A1C-B61C-5E4DE21185F5}"/>
+    <hyperlink ref="L3" r:id="rId2" xr:uid="{BF74F309-8126-49F4-AFB3-A3619E30E095}"/>
+    <hyperlink ref="L4" r:id="rId3" xr:uid="{25A5AE6F-951F-4B38-A1D9-F77FEF8505F2}"/>
+    <hyperlink ref="L5:L7" r:id="rId4" display="testauto2@yopmail.com" xr:uid="{2247CD11-3722-4005-A865-F540225EF96A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -752,7 +1362,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -771,91 +1381,91 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="G1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -867,7 +1477,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4CA7CEF-DD08-47C3-9813-E1493B0F8BB1}">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -885,16 +1495,476 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56689F5D-9C79-45D5-8142-2425B09090D7}">
+  <dimension ref="A1:AL17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" customWidth="1"/>
+    <col min="3" max="3" width="32.28515625" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" customWidth="1"/>
+    <col min="9" max="9" width="26" customWidth="1"/>
+    <col min="10" max="10" width="29.140625" customWidth="1"/>
+    <col min="11" max="11" width="32.28515625" customWidth="1"/>
+    <col min="12" max="12" width="32.28515625" style="6" customWidth="1"/>
+    <col min="13" max="13" width="19" customWidth="1"/>
+    <col min="14" max="14" width="21.7109375" customWidth="1"/>
+    <col min="15" max="15" width="27.42578125" customWidth="1"/>
+    <col min="16" max="16" width="22.28515625" customWidth="1"/>
+    <col min="17" max="17" width="28.140625" customWidth="1"/>
+    <col min="18" max="18" width="22.42578125" customWidth="1"/>
+    <col min="19" max="19" width="21.5703125" customWidth="1"/>
+    <col min="20" max="20" width="20.140625" customWidth="1"/>
+    <col min="21" max="21" width="22.85546875" customWidth="1"/>
+    <col min="22" max="22" width="19.42578125" customWidth="1"/>
+    <col min="23" max="23" width="22.5703125" customWidth="1"/>
+    <col min="24" max="24" width="28.140625" customWidth="1"/>
+    <col min="25" max="25" width="25.7109375" customWidth="1"/>
+    <col min="26" max="26" width="22" customWidth="1"/>
+    <col min="27" max="27" width="27.28515625" customWidth="1"/>
+    <col min="28" max="28" width="25.85546875" customWidth="1"/>
+    <col min="29" max="29" width="25.7109375" customWidth="1"/>
+    <col min="30" max="30" width="22.5703125" customWidth="1"/>
+    <col min="31" max="31" width="31.42578125" customWidth="1"/>
+    <col min="32" max="33" width="19.28515625" customWidth="1"/>
+    <col min="34" max="34" width="22" customWidth="1"/>
+    <col min="35" max="35" width="23.5703125" customWidth="1"/>
+    <col min="36" max="36" width="24.28515625" customWidth="1"/>
+    <col min="37" max="37" width="30.5703125" customWidth="1"/>
+    <col min="38" max="38" width="24.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>52</v>
       </c>
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
       <c r="D1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="M1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1" t="s">
+        <v>63</v>
+      </c>
+      <c r="O1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R1" t="s">
+        <v>67</v>
+      </c>
+      <c r="S1" t="s">
+        <v>68</v>
+      </c>
+      <c r="T1" t="s">
+        <v>69</v>
+      </c>
+      <c r="U1" t="s">
+        <v>70</v>
+      </c>
+      <c r="V1" t="s">
+        <v>71</v>
+      </c>
+      <c r="W1" t="s">
+        <v>73</v>
+      </c>
+      <c r="X1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="M2" t="s">
+        <v>99</v>
+      </c>
+      <c r="N2" t="s">
+        <v>100</v>
+      </c>
+      <c r="O2" t="s">
+        <v>101</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="R2" t="s">
+        <v>99</v>
+      </c>
+      <c r="S2" t="s">
+        <v>102</v>
+      </c>
+      <c r="T2" t="s">
+        <v>103</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="W2" t="s">
+        <v>104</v>
+      </c>
+      <c r="X2" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AK2" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL2" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{009D254A-F33C-44D5-9F53-2CBE36E8438D}"/>
+    <hyperlink ref="P2" r:id="rId2" xr:uid="{5989FE7B-9B25-43F0-A601-D63E9B92E3E2}"/>
+    <hyperlink ref="U2" r:id="rId3" xr:uid="{BB9AB100-A6F1-498E-A0EB-FDD0404075B8}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D445812C-EE3A-4F99-BA56-3F0DBE14F126}">
+  <dimension ref="A1:AF1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AC8" sqref="AC8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" customWidth="1"/>
+    <col min="9" max="9" width="31.85546875" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" customWidth="1"/>
+    <col min="12" max="15" width="22.28515625" customWidth="1"/>
+    <col min="16" max="16" width="17.42578125" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" customWidth="1"/>
+    <col min="18" max="18" width="22.42578125" customWidth="1"/>
+    <col min="19" max="19" width="19" customWidth="1"/>
+    <col min="20" max="20" width="18.85546875" customWidth="1"/>
+    <col min="21" max="21" width="20.28515625" customWidth="1"/>
+    <col min="22" max="22" width="20.140625" customWidth="1"/>
+    <col min="23" max="23" width="19.7109375" customWidth="1"/>
+    <col min="24" max="24" width="20.42578125" customWidth="1"/>
+    <col min="25" max="25" width="17" customWidth="1"/>
+    <col min="26" max="27" width="20.5703125" customWidth="1"/>
+    <col min="28" max="28" width="16.5703125" customWidth="1"/>
+    <col min="29" max="29" width="15" customWidth="1"/>
+    <col min="30" max="30" width="15.5703125" customWidth="1"/>
+    <col min="31" max="31" width="16.28515625" customWidth="1"/>
+    <col min="32" max="32" width="22.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" t="s">
         <v>53</v>
       </c>
+      <c r="C1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" t="s">
+        <v>55</v>
+      </c>
       <c r="E1" t="s">
-        <v>54</v>
+        <v>56</v>
+      </c>
+      <c r="F1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R1" t="s">
+        <v>72</v>
+      </c>
+      <c r="S1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U1" t="s">
+        <v>91</v>
+      </c>
+      <c r="V1" t="s">
+        <v>77</v>
+      </c>
+      <c r="W1" t="s">
+        <v>78</v>
+      </c>
+      <c r="X1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/TestInputData.xlsx
+++ b/TestData/TestInputData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Robot_Framework\Salesforce_Automation-Demo\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590A4218-6F79-4468-807F-CF44A5F4953E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE4295B-B9DF-4670-A54B-F48591108B6F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="258">
   <si>
     <t>FirstName</t>
   </si>
@@ -415,9 +415,6 @@
     <t>8823938767</t>
   </si>
   <si>
-    <t>QA1</t>
-  </si>
-  <si>
     <t>Spouse1</t>
   </si>
   <si>
@@ -442,9 +439,6 @@
     <t>ADF_REL-03</t>
   </si>
   <si>
-    <t>Test Automation1</t>
-  </si>
-  <si>
     <t>Spouse2</t>
   </si>
   <si>
@@ -466,30 +460,15 @@
     <t>NickName</t>
   </si>
   <si>
-    <t>Test Automation4</t>
-  </si>
-  <si>
-    <t>Test Automation5</t>
-  </si>
-  <si>
-    <t>Test Automation6</t>
-  </si>
-  <si>
     <t>QA4</t>
   </si>
   <si>
     <t>QA5</t>
   </si>
   <si>
-    <t>QA3_Greeting</t>
-  </si>
-  <si>
     <t>Spouse3</t>
   </si>
   <si>
-    <t>QA2-Salutation</t>
-  </si>
-  <si>
     <t>Test Mailing Street 3</t>
   </si>
   <si>
@@ -565,15 +544,6 @@
     <t>9238848910</t>
   </si>
   <si>
-    <t>9238848911</t>
-  </si>
-  <si>
-    <t>9238848912</t>
-  </si>
-  <si>
-    <t>9238848913</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mobile </t>
   </si>
   <si>
@@ -586,15 +556,6 @@
     <t>7983885786</t>
   </si>
   <si>
-    <t>7983885785</t>
-  </si>
-  <si>
-    <t>7983885784</t>
-  </si>
-  <si>
-    <t>7983885783</t>
-  </si>
-  <si>
     <t>Work Phone</t>
   </si>
   <si>
@@ -607,15 +568,6 @@
     <t>8039848956</t>
   </si>
   <si>
-    <t>8039848955</t>
-  </si>
-  <si>
-    <t>8039848954</t>
-  </si>
-  <si>
-    <t>8039848953</t>
-  </si>
-  <si>
     <t>Work Phone Extension</t>
   </si>
   <si>
@@ -632,6 +584,225 @@
   </si>
   <si>
     <t>Work</t>
+  </si>
+  <si>
+    <t>QA7</t>
+  </si>
+  <si>
+    <t>QA8-Salutation</t>
+  </si>
+  <si>
+    <t>QA9_Greeting</t>
+  </si>
+  <si>
+    <t>ADF_REL-11</t>
+  </si>
+  <si>
+    <t>ADF_REL-07</t>
+  </si>
+  <si>
+    <t>ADF_REL-08</t>
+  </si>
+  <si>
+    <t>Test Mailing Street 8</t>
+  </si>
+  <si>
+    <t>Test Mailing City8</t>
+  </si>
+  <si>
+    <t>Test State 8</t>
+  </si>
+  <si>
+    <t>79240</t>
+  </si>
+  <si>
+    <t>(923) 884-8913</t>
+  </si>
+  <si>
+    <t>(798) 388-5785</t>
+  </si>
+  <si>
+    <t>(798) 388-5786</t>
+  </si>
+  <si>
+    <t>(798) 388-5787</t>
+  </si>
+  <si>
+    <t>(798) 388-5788</t>
+  </si>
+  <si>
+    <t>(798) 388-5789</t>
+  </si>
+  <si>
+    <t>(923) 884-8914</t>
+  </si>
+  <si>
+    <t>(923) 884-8915</t>
+  </si>
+  <si>
+    <t>(923) 884-8916</t>
+  </si>
+  <si>
+    <t>(923) 884-8917</t>
+  </si>
+  <si>
+    <t>(803) 984-8955</t>
+  </si>
+  <si>
+    <t>(803) 984-8956</t>
+  </si>
+  <si>
+    <t>(803) 984-8957</t>
+  </si>
+  <si>
+    <t>(803) 984-8958</t>
+  </si>
+  <si>
+    <t>(803) 984-8959</t>
+  </si>
+  <si>
+    <t>10000878</t>
+  </si>
+  <si>
+    <t>ADF_REL-14</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>Donation</t>
+  </si>
+  <si>
+    <t>ADF_REL-33</t>
+  </si>
+  <si>
+    <t>JuanaMoore_Church $200.00 Membership 10/24/2018</t>
+  </si>
+  <si>
+    <t>Contact Value</t>
+  </si>
+  <si>
+    <t>ADF_REL-09</t>
+  </si>
+  <si>
+    <t>ADF_REL-10</t>
+  </si>
+  <si>
+    <t>ADF_REL-12</t>
+  </si>
+  <si>
+    <t>ADF_REL-13</t>
+  </si>
+  <si>
+    <t>ADF_REL-15</t>
+  </si>
+  <si>
+    <t>ADF_REL-16</t>
+  </si>
+  <si>
+    <t>ADF_REL-17</t>
+  </si>
+  <si>
+    <t>ADF_REL-36</t>
+  </si>
+  <si>
+    <t>Kerry</t>
+  </si>
+  <si>
+    <t>QA9</t>
+  </si>
+  <si>
+    <t>ADF_REL-34</t>
+  </si>
+  <si>
+    <t>Earnest Stevenson</t>
+  </si>
+  <si>
+    <t>ADF_REL-23</t>
+  </si>
+  <si>
+    <t>Donor Value</t>
+  </si>
+  <si>
+    <t>ADF_REL-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lisa</t>
+  </si>
+  <si>
+    <t>ADF_REL-21</t>
+  </si>
+  <si>
+    <t>ADF_REL-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contact </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Walter</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>ADF_REL-24</t>
+  </si>
+  <si>
+    <t>ADF_REL-25</t>
+  </si>
+  <si>
+    <t>IdaMyers</t>
+  </si>
+  <si>
+    <t>ADF_REL-26</t>
+  </si>
+  <si>
+    <t>ADF_REL-27</t>
+  </si>
+  <si>
+    <t>Betsy</t>
+  </si>
+  <si>
+    <t>ADF_REL-28</t>
+  </si>
+  <si>
+    <t>ADF_REL-29</t>
+  </si>
+  <si>
+    <t>ADF_REL-30</t>
+  </si>
+  <si>
+    <t>ADF_REL-31</t>
+  </si>
+  <si>
+    <t>Ginger Carr</t>
+  </si>
+  <si>
+    <t>ADF_REL-32</t>
+  </si>
+  <si>
+    <t>Test Ambassador1</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>Test Automation8</t>
+  </si>
+  <si>
+    <t>Test Automation10</t>
+  </si>
+  <si>
+    <t>Test Automation11</t>
+  </si>
+  <si>
+    <t>Test Automation12</t>
+  </si>
+  <si>
+    <t>Test Automation13</t>
+  </si>
+  <si>
+    <t>Test Automation14</t>
   </si>
 </sst>
 </file>
@@ -975,10 +1146,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1000,11 +1171,12 @@
     <col min="16" max="16" width="15.5703125" customWidth="1"/>
     <col min="17" max="17" width="25.42578125" customWidth="1"/>
     <col min="18" max="18" width="18.7109375" customWidth="1"/>
+    <col min="19" max="19" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1013,10 +1185,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -1043,39 +1215,42 @@
         <v>50</v>
       </c>
       <c r="N1" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="O1" t="s">
+        <v>171</v>
+      </c>
+      <c r="P1" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>179</v>
+      </c>
+      <c r="R1" t="s">
         <v>181</v>
       </c>
-      <c r="P1" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>195</v>
-      </c>
-      <c r="R1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>252</v>
       </c>
       <c r="C2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F2" t="s">
         <v>128</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>129</v>
-      </c>
-      <c r="G2" t="s">
-        <v>130</v>
       </c>
       <c r="H2" t="s">
         <v>10</v>
@@ -1084,41 +1259,41 @@
         <v>12</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K2" t="s">
         <v>14</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6" t="s">
-        <v>152</v>
+        <v>186</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H3" t="s">
         <v>11</v>
@@ -1127,40 +1302,40 @@
         <v>13</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K3" t="s">
         <v>14</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6" t="s">
-        <v>150</v>
+        <v>187</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>47</v>
@@ -1175,174 +1350,393 @@
         <v>14</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>51</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="F5" s="6" t="s">
+      <c r="G5" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>158</v>
-      </c>
       <c r="I5" s="6" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>14</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="R5" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>146</v>
+        <v>254</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>14</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="R6" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>147</v>
+        <v>255</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>9</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="K7" s="6" t="s">
         <v>14</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="N7" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q7" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="O7" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="P7" s="3" t="s">
+      <c r="R7" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="M8" s="6"/>
+      <c r="N8" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="Q7" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="R7" s="6" t="s">
+      <c r="K9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="M9" s="6"/>
+      <c r="N9" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="O9" s="3" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="G8" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>169</v>
+      <c r="P9" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="R9" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="S20" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="S25" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="S26" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="S27" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="S33" s="6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="S34" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -1351,9 +1745,11 @@
     <hyperlink ref="L3" r:id="rId2" xr:uid="{BF74F309-8126-49F4-AFB3-A3619E30E095}"/>
     <hyperlink ref="L4" r:id="rId3" xr:uid="{25A5AE6F-951F-4B38-A1D9-F77FEF8505F2}"/>
     <hyperlink ref="L5:L7" r:id="rId4" display="testauto2@yopmail.com" xr:uid="{2247CD11-3722-4005-A865-F540225EF96A}"/>
+    <hyperlink ref="L8" r:id="rId5" xr:uid="{C92091A3-A499-4E51-AEAD-3FB3446D0A90}"/>
+    <hyperlink ref="L9" r:id="rId6" xr:uid="{7601F505-0300-46C9-88AA-B6B040423897}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -1361,9 +1757,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4314EE49-B3BC-4004-9487-685801F1AFCB}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1377,8 +1771,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>2</v>
+      <c r="A1" s="6" t="s">
+        <v>132</v>
       </c>
       <c r="B1" t="s">
         <v>42</v>
@@ -1424,7 +1818,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>188</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -1475,24 +1869,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4CA7CEF-DD08-47C3-9813-E1493B0F8BB1}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
     <col min="4" max="4" width="20.140625" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="51.28515625" customWidth="1"/>
+    <col min="7" max="7" width="27.28515625" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>2</v>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>132</v>
       </c>
       <c r="B1" t="s">
         <v>43</v>
@@ -1505,6 +1902,93 @@
       </c>
       <c r="E1" t="s">
         <v>46</v>
+      </c>
+      <c r="F1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G1" t="s">
+        <v>230</v>
+      </c>
+      <c r="H1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="F4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="F6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="F7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
